--- a/出纳表格 - 副本.xlsx
+++ b/出纳表格 - 副本.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23715" windowHeight="9630" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="23715" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="出纳报告表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="银行存款余额调节表" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -405,25 +405,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -525,16 +522,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -545,9 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,16 +567,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -653,7 +645,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -688,7 +679,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -864,14 +854,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
@@ -880,16 +870,16 @@
     <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:6" ht="33.75" customHeight="1">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="2:6" ht="20.25" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
@@ -898,7 +888,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" ht="24.95" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -924,7 +914,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" ht="24.95" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -933,7 +923,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" ht="24.95" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -942,7 +932,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" ht="24.95" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -951,7 +941,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" ht="24.95" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -960,14 +950,14 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:6" ht="22.5" customHeight="1">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -982,14 +972,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D32:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
@@ -999,7 +989,7 @@
     <col min="7" max="7" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7">
       <c r="B1" s="5" t="s">
         <v>39</v>
       </c>
@@ -1009,7 +999,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7">
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1019,7 +1009,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7">
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1051,7 +1041,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1061,7 +1051,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1071,7 +1061,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1081,7 +1071,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" ht="27" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1094,12 +1084,12 @@
       <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1109,7 +1099,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7">
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1119,7 +1109,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7">
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1119,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7">
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1139,7 +1129,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:7">
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1149,7 +1139,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7">
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1159,7 +1149,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7">
       <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1159,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7">
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
@@ -1179,7 +1169,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1189,7 +1179,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1199,7 +1189,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1208,6 +1198,11 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="C26">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1220,14 +1215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1235,30 +1230,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="3:8">
+      <c r="C1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="3" spans="3:8">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
@@ -1274,177 +1269,177 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="3:8">
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C7" s="8" t="s">
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="3:8">
+      <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C9" s="8" t="s">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C10" s="8" t="s">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C11" s="8" t="s">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C12" s="8" t="s">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C13" s="8" t="s">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:8">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="3:8">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="3:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="4" t="s">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="3:8" ht="29.25" customHeight="1">
+      <c r="C18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H8:H13"/>
     <mergeCell ref="H15:H17"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H8:H13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1452,59 +1447,59 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:15">
+      <c r="B1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="2:15">
       <c r="B2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:15">
+      <c r="B3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>63</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>66</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -1518,19 +1513,19 @@
       <c r="N3" s="12"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+    <row r="4" spans="2:15">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="3" t="s">
         <v>68</v>
       </c>
@@ -1550,7 +1545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1566,7 +1561,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1582,7 +1577,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1598,7 +1593,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1614,7 +1609,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1630,7 +1625,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1646,7 +1641,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1662,7 +1657,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1678,7 +1673,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1694,7 +1689,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1729,14 +1724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
@@ -1749,22 +1744,22 @@
     <col min="11" max="11" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="40.5" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="13" t="s">
         <v>88</v>
       </c>
@@ -1779,7 +1774,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -1800,7 +1795,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
@@ -1833,7 +1828,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1846,7 +1841,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1859,7 +1854,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1872,7 +1867,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1885,7 +1880,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1898,7 +1893,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1911,7 +1906,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1924,7 +1919,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1937,7 +1932,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1950,7 +1945,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1963,7 +1958,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1976,7 +1971,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1989,7 +1984,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2002,7 +1997,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2015,7 +2010,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -2032,7 +2027,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="24" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>90</v>
       </c>
@@ -2059,16 +2054,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F5:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="6:15">
       <c r="F5" t="s">
         <v>92</v>
       </c>
@@ -2094,9 +2089,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="6:15">
       <c r="F6" t="str">
-        <f>IF(G6="","×",IF(ISNA(VLOOKUP(G6,$O$6:$O$20,1,FALSE)),"×","√"))</f>
+        <f t="shared" ref="F6:F11" si="0">IF(G6="","×",IF(ISNA(VLOOKUP(G6,$O$6:$O$20,1,FALSE)),"×","√"))</f>
         <v>√</v>
       </c>
       <c r="G6">
@@ -2124,9 +2119,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="6:15">
       <c r="F7" t="str">
-        <f t="shared" ref="F7:F11" si="0">IF(G7="","×",IF(ISNA(VLOOKUP(G7,$O$6:$O$20,1,FALSE)),"×","√"))</f>
+        <f t="shared" si="0"/>
         <v>√</v>
       </c>
       <c r="G7">
@@ -2154,7 +2149,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="6:15">
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>√</v>
@@ -2184,7 +2179,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="6:15">
       <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>√</v>
@@ -2214,7 +2209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="6:15">
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>×</v>
@@ -2241,7 +2236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="6:15">
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>×</v>
@@ -2268,7 +2263,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="6:15">
       <c r="H12" t="str">
         <f t="shared" si="1"/>
         <v>×</v>
@@ -2285,7 +2280,7 @@
         <v>×</v>
       </c>
     </row>
-    <row r="13" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="6:15">
       <c r="L13" t="str">
         <f t="shared" si="2"/>
         <v>×</v>
@@ -2295,7 +2290,7 @@
         <v>×</v>
       </c>
     </row>
-    <row r="14" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="6:15">
       <c r="N14" t="str">
         <f t="shared" si="3"/>
         <v>×</v>
